--- a/Robo/SicoobFinpet/conciliacoes.xlsx
+++ b/Robo/SicoobFinpet/conciliacoes.xlsx
@@ -34,7 +34,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -54,11 +54,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="004CAF50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F44336"/>
       </patternFill>
     </fill>
   </fills>
@@ -88,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -100,9 +95,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F360"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -994,7 +986,7 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>700</v>
+        <v>634.79</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>634.79</v>
@@ -1004,13 +996,13 @@
           <t>EVOLUSERVICES _Cred._Visa</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>65.20999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -9850,6 +9842,240 @@
         </is>
       </c>
       <c r="F360" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="4" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B361" s="4" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="C361" s="4" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="D361" s="4" t="inlineStr">
+        <is>
+          <t>EVOLUSERVICES _Cred._Mastercard</t>
+        </is>
+      </c>
+      <c r="E361" s="3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F361" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>402.98</v>
+      </c>
+      <c r="C362" s="2" t="n">
+        <v>402.98</v>
+      </c>
+      <c r="D362" s="2" t="inlineStr">
+        <is>
+          <t>EVOLUSERVICES _Deb._Maestro</t>
+        </is>
+      </c>
+      <c r="E362" s="3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F362" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="4" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B363" s="4" t="n">
+        <v>365.93</v>
+      </c>
+      <c r="C363" s="4" t="n">
+        <v>365.93</v>
+      </c>
+      <c r="D363" s="4" t="inlineStr">
+        <is>
+          <t>EVOLUSERVICES _Deb._Visa Electron</t>
+        </is>
+      </c>
+      <c r="E363" s="3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F363" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>104.89</v>
+      </c>
+      <c r="C364" s="2" t="n">
+        <v>104.89</v>
+      </c>
+      <c r="D364" s="2" t="inlineStr">
+        <is>
+          <t>EVOLUSERVICES _Cred._Mastercard</t>
+        </is>
+      </c>
+      <c r="E364" s="3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F364" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="4" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B365" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C365" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D365" s="4" t="inlineStr">
+        <is>
+          <t>EVOLUSERVICES _Cred._Mastercard</t>
+        </is>
+      </c>
+      <c r="E365" s="3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F365" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="C366" s="2" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="D366" s="2" t="inlineStr">
+        <is>
+          <t>EVOLUSERVICES _Cred._Mastercard</t>
+        </is>
+      </c>
+      <c r="E366" s="3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F366" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="4" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B367" s="4" t="n">
+        <v>209.65</v>
+      </c>
+      <c r="C367" s="4" t="n">
+        <v>209.65</v>
+      </c>
+      <c r="D367" s="4" t="inlineStr">
+        <is>
+          <t>EVOLUSERVICES _Cred._Visa</t>
+        </is>
+      </c>
+      <c r="E367" s="3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F367" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="C368" s="2" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="D368" s="2" t="inlineStr">
+        <is>
+          <t>EVOLUSERVICES _Cred._Visa</t>
+        </is>
+      </c>
+      <c r="E368" s="3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F368" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="4" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B369" s="4" t="n">
+        <v>155.53</v>
+      </c>
+      <c r="C369" s="4" t="n">
+        <v>155.53</v>
+      </c>
+      <c r="D369" s="4" t="inlineStr">
+        <is>
+          <t>EVOLUSERVICES _Cred._Mastercard</t>
+        </is>
+      </c>
+      <c r="E369" s="3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="F369" s="4" t="n">
         <v>0</v>
       </c>
     </row>
